--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAA029-3148-46AA-BC86-6185B4371964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9625B29E-6ED7-41B9-824F-5BA542E5080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="21840" windowHeight="37920" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="57390" yWindow="1995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>UnitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectilePrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
   </si>
   <si>
     <t>Kitty.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile.Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -491,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,22 +494,21 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,37 +543,34 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
+      <c r="F2" s="1">
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -593,37 +581,34 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -634,28 +619,25 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>7</v>
@@ -664,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -675,113 +657,107 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G37">
-    <sortCondition ref="D37"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9625B29E-6ED7-41B9-824F-5BA542E5080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E285BA1D-AD8F-4EA7-9B76-CFF6F4B817FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57390" yWindow="1995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitPrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kitty.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +105,14 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitPrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +486,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,40 +508,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -549,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -625,16 +625,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>7</v>

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E285BA1D-AD8F-4EA7-9B76-CFF6F4B817FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF922BB0-A91A-4B39-AF14-6CF79A3ABA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57390" yWindow="1995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="11175" yWindow="4995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UnitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nullptr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,18 @@
   </si>
   <si>
     <t>UnitPrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,15 +514,15 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -543,8 +551,11 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -552,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -581,8 +592,11 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -590,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -599,10 +613,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>7</v>
@@ -619,8 +633,11 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -637,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
         <v>7</v>
@@ -657,41 +674,44 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF922BB0-A91A-4B39-AF14-6CF79A3ABA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F8A9A8-63B7-4E55-A6AA-9EA00836BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="4995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="18135" yWindow="900" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +113,14 @@
   </si>
   <si>
     <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,13 +516,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -604,19 +604,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>7</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -645,19 +645,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
         <v>7</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F8A9A8-63B7-4E55-A6AA-9EA00836BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76543562-BA2E-45F5-81C1-B8DABAD7ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="900" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="25890" yWindow="4170" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>UnitName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitPrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +113,54 @@
   </si>
   <si>
     <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitPrefabID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニャオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネコ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +183,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,291 +541,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>7</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>7</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76543562-BA2E-45F5-81C1-B8DABAD7ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD913B-4CD4-4A23-9271-D5F804BABFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25890" yWindow="4170" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="17865" yWindow="4140" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>AtkPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,22 +49,6 @@
   </si>
   <si>
     <t>UpgradeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dAtkPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dAtkRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dAtkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dUpgradeCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,39 +536,34 @@
     <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -603,281 +578,221 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
       </c>
       <c r="J2" s="1">
         <v>3</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>7</v>
       </c>
       <c r="L4" s="1">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="2"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD913B-4CD4-4A23-9271-D5F804BABFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043CA63-1379-496A-8409-B05481A9484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="4140" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="23475" yWindow="7380" windowWidth="20085" windowHeight="12090" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,59 +84,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UnitID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitPrefabID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニャオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネコ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitPrefabID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameKR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameJP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ニャオ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喵喵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ネコ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>トラ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,25 +545,25 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -589,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -627,25 +627,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>5</v>
@@ -654,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -665,25 +665,25 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/AllyUnitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043CA63-1379-496A-8409-B05481A9484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD876E7-F1B2-4285-B9B1-A86404F39651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23475" yWindow="7380" windowWidth="20085" windowHeight="12090" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="35025" yWindow="3900" windowWidth="20085" windowHeight="17205" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,15 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -642,13 +642,13 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
         <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
       </c>
       <c r="K3" s="1">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
         <v>7</v>
